--- a/medicine/Pharmacie/Prométhazine/Prométhazine.xlsx
+++ b/medicine/Pharmacie/Prométhazine/Prométhazine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prom%C3%A9thazine</t>
+          <t>Prométhazine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La prométhazine est un neuroleptique antihistaminique inhibiteur des récepteurs H1 de la famille des phénothiazines. C'est un médicament utilisé dans le traitement de l'allergie et de l'insomnie passagère. Il s'agit d'une des premières molécules antihistaminiques découvertes de manière fortuite lors de recherches menées sur des composés de la famille des phenothiazines. 
@@ -497,7 +509,7 @@
 La prométhazine reste toutefois une alternative aux autres antihistaminiques dans la prise en charge de la rhinite saisonnière, urticaire, rhume des foins, conjonctivite...
 Il possède un effet hypotenseur. Une vigilance doit tout particulièrement être portée sur les personnes âgées et les enfants. Ce médicament n'est pas recommandé chez l'enfant de moins de 8 ans, sauf dans le cas d'absence d'alternative). Le manque d'étude et le principe de précaution suggère d'éviter la prométhazine chez la femme enceinte (risque tératogène potentiel).
 Lors d'un traitement à la promethazine, la consommation d'alcool est fortement  déconseillée (risque de majoration de la sédation). La prométhazine présenterait moins de risque sur le plan cardio-vasculaire que l'hydroxyzine (risque d'allongement du QT à l'ECG). Néanmoins, une attention particulière doit être portée chez les sujets présentant des pathologies cardiaque et/ou psychiatrique. 
-En France, les médicaments à base de  prométhazine par voie orale étaient précédemment sans ordonnance, mais sont désormais disponibles uniquement sur ordonnance depuis janvier 2020[2].
+En France, les médicaments à base de  prométhazine par voie orale étaient précédemment sans ordonnance, mais sont désormais disponibles uniquement sur ordonnance depuis janvier 2020.
 </t>
         </is>
       </c>
@@ -508,7 +520,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Prom%C3%A9thazine</t>
+          <t>Prométhazine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -526,10 +538,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après la découverte du rôle de l'histamine dans les allergies, le laboratoire Rhône-Poulenc cherche à développer dès 1933 des antihistaminiques ; les chimistes synthétisent donc en 1947 un dérivé phénothiazinique, la prométhazine, qui possède des propriétés sédatives marquées. En 1948, le chirurgien Pierre Huguenard l'utilise dans un cocktail lytique pour provoquer sédation et indifférence chez les opérés, et Henri Laborit, un autre chirurgien, cherche à prévenir le choc opératoire et soupçonne un effet « stabilisant » du système nerveux central (SNC) pouvant créer une hibernation artificielle et une sédation sans narcose, il demande alors au laboratoire Rhône-Poulenc de travailler sur des composés aux propriétés stabilisantes plus marquées, ce qui permet la création de la chlorpromazine.
-En juillet 2017, cette substance est vendue sous plusieurs marques de par le monde : Allersoothe, Antiallersin, Anvomin, Atosil, Avomine, Closin N, Codopalm, Diphergan, Farganesse, Fenazil, Fenergan, Fenezal, Frinova, Hiberna, Histabil, Histaloc, Histantil, Histazin, Histazine, Histerzin, Lenazine, Lergigan, Nufapreg, Otosil, Pamergan, Pharmaniaga, Phenadoz, Phenerex, Phenergan, Phénergan, Pipolphen, Polfergan, Proazamine, Progene, Prohist, Promet, Prometal, Prometazin, Prometazina, Promethazin, Prométhazine, Promethazinum, Promethegan, Promezin, Proneurin, Prothazin, Prothiazine, Prozin, Pyrethia, Quitazine, Reactifargan, Receptozine, Romergan, Sominex, Sylomet, Xepagan, Zinmet et Zoralix[3].
+En juillet 2017, cette substance est vendue sous plusieurs marques de par le monde : Allersoothe, Antiallersin, Anvomin, Atosil, Avomine, Closin N, Codopalm, Diphergan, Farganesse, Fenazil, Fenergan, Fenezal, Frinova, Hiberna, Histabil, Histaloc, Histantil, Histazin, Histazine, Histerzin, Lenazine, Lergigan, Nufapreg, Otosil, Pamergan, Pharmaniaga, Phenadoz, Phenerex, Phenergan, Phénergan, Pipolphen, Polfergan, Proazamine, Progene, Prohist, Promet, Prometal, Prometazin, Prometazina, Promethazin, Prométhazine, Promethazinum, Promethegan, Promezin, Proneurin, Prothazin, Prothiazine, Prozin, Pyrethia, Quitazine, Reactifargan, Receptozine, Romergan, Sominex, Sylomet, Xepagan, Zinmet et Zoralix.
 </t>
         </is>
       </c>
